--- a/results/comparaison/GM/depolarization/max_normalized.xlsx
+++ b/results/comparaison/GM/depolarization/max_normalized.xlsx
@@ -983,421 +983,535 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>1.008928571428571</v>
+      </c>
+      <c r="D3">
+        <v>1.028301886792453</v>
+      </c>
+      <c r="E3">
         <v>1.038834951456311</v>
       </c>
-      <c r="C3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.019047619047619</v>
+      </c>
+      <c r="I3">
+        <v>1.009345794392523</v>
+      </c>
+      <c r="J3">
         <v>1.03</v>
       </c>
-      <c r="D3">
-        <v>1.05</v>
-      </c>
-      <c r="E3">
-        <v>1.041666666666667</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>1.06</v>
       </c>
-      <c r="G3">
-        <v>1.05</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>1.051546391752577</v>
+      </c>
+      <c r="M3">
+        <v>1.0625</v>
+      </c>
+      <c r="N3">
         <v>1.038461538461539</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>1.069306930693069</v>
       </c>
-      <c r="L3">
-        <v>1.040816326530612</v>
-      </c>
-      <c r="N3">
+      <c r="P3">
+        <v>1.051020408163265</v>
+      </c>
+      <c r="Q3">
         <v>1.019417475728155</v>
       </c>
-      <c r="P3">
-        <v>1.072916666666667</v>
-      </c>
-      <c r="R3">
-        <v>1.030612244897959</v>
-      </c>
-      <c r="S3">
-        <v>1.058252427184466</v>
-      </c>
       <c r="T3">
-        <v>1.080808080808081</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.02020202020202</v>
       </c>
       <c r="V3">
-        <v>1.009259259259259</v>
-      </c>
-      <c r="X3">
-        <v>1.019047619047619</v>
+        <v>1.049019607843137</v>
+      </c>
+      <c r="W3">
+        <v>1.018867924528302</v>
       </c>
       <c r="Y3">
-        <v>1.080808080808081</v>
+        <v>1.037735849056604</v>
       </c>
       <c r="Z3">
-        <v>1.009345794392523</v>
-      </c>
-      <c r="AB3">
-        <v>1.009009009009009</v>
+        <v>1.091836734693878</v>
+      </c>
+      <c r="AA3">
+        <v>1.123711340206186</v>
       </c>
       <c r="AC3">
-        <v>1.00990099009901</v>
+        <v>1.112359550561798</v>
       </c>
       <c r="AD3">
-        <v>1.060606060606061</v>
-      </c>
-      <c r="AE3">
+        <v>1.045045045045045</v>
+      </c>
+      <c r="AF3">
         <v>1.028301886792453</v>
       </c>
-      <c r="AF3">
-        <v>1.067961165048544</v>
-      </c>
       <c r="AG3">
-        <v>0.9811320754716982</v>
-      </c>
-      <c r="AH3">
-        <v>1.020833333333333</v>
+        <v>1.114583333333333</v>
       </c>
       <c r="AI3">
         <v>1.114583333333333</v>
       </c>
       <c r="AJ3">
-        <v>1.046728971962617</v>
+        <v>1.037735849056604</v>
+      </c>
+      <c r="AK3">
+        <v>1.038095238095238</v>
       </c>
       <c r="AL3">
-        <v>1.06</v>
+        <v>1.071428571428571</v>
+      </c>
+      <c r="AM3">
+        <v>1.009615384615385</v>
       </c>
       <c r="AN3">
-        <v>1.026785714285714</v>
+        <v>1.126315789473684</v>
       </c>
       <c r="AO3">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="AP3">
+        <v>1.091836734693878</v>
+      </c>
+      <c r="AQ3">
+        <v>1.08421052631579</v>
+      </c>
+      <c r="AR3">
         <v>1.05</v>
       </c>
-      <c r="AP3">
-        <v>1.027522935779817</v>
-      </c>
-      <c r="AQ3">
-        <v>1.061224489795918</v>
-      </c>
-      <c r="AR3">
+      <c r="AT3">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="AU3">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="AV3">
+        <v>1.041237113402062</v>
+      </c>
+      <c r="AW3">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="AX3">
+        <v>1.02970297029703</v>
+      </c>
+      <c r="AY3">
+        <v>1.274725274725275</v>
+      </c>
+      <c r="BA3">
+        <v>1.080808080808081</v>
+      </c>
+      <c r="BB3">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="BC3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="BD3">
+        <v>1.123595505617978</v>
+      </c>
+      <c r="BE3">
+        <v>1.059405940594059</v>
+      </c>
+      <c r="BF3">
+        <v>1.106382978723404</v>
+      </c>
+      <c r="BH3">
+        <v>1.138297872340426</v>
+      </c>
+      <c r="BI3">
+        <v>1.038461538461539</v>
+      </c>
+      <c r="BJ3">
+        <v>1.120879120879121</v>
+      </c>
+      <c r="BK3">
+        <v>1.068627450980392</v>
+      </c>
+      <c r="BL3">
+        <v>1.120879120879121</v>
+      </c>
+      <c r="BN3">
+        <v>1.138297872340426</v>
+      </c>
+      <c r="BO3">
+        <v>0.9811320754716982</v>
+      </c>
+      <c r="BP3">
+        <v>1.108695652173913</v>
+      </c>
+      <c r="BQ3">
+        <v>1.129411764705882</v>
+      </c>
+      <c r="BR3">
+        <v>1.094736842105263</v>
+      </c>
+      <c r="BS3">
+        <v>1.108695652173913</v>
+      </c>
+      <c r="BT3">
+        <v>1.108695652173913</v>
+      </c>
+      <c r="BU3">
+        <v>1.051546391752577</v>
+      </c>
+      <c r="BV3">
+        <v>1.094736842105263</v>
+      </c>
+      <c r="BW3">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="BX3">
+        <v>1.10989010989011</v>
+      </c>
+      <c r="BY3">
+        <v>1.058823529411765</v>
+      </c>
+      <c r="BZ3">
+        <v>1.157303370786517</v>
+      </c>
+      <c r="CB3">
+        <v>1.03</v>
+      </c>
+      <c r="CC3">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="CD3">
+        <v>1.04040404040404</v>
+      </c>
+      <c r="CE3">
+        <v>1</v>
+      </c>
+      <c r="CF3">
+        <v>0.9805825242718448</v>
+      </c>
+      <c r="CG3">
+        <v>1.061855670103093</v>
+      </c>
+      <c r="CH3">
+        <v>1.051020408163265</v>
+      </c>
+      <c r="CI3">
+        <v>0.9892473118279569</v>
+      </c>
+      <c r="CK3">
+        <v>1.082474226804124</v>
+      </c>
+      <c r="CL3">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="CM3">
         <v>1.09375</v>
       </c>
-      <c r="AT3">
-        <v>1.048076923076923</v>
-      </c>
-      <c r="AV3">
-        <v>1.018691588785047</v>
-      </c>
-      <c r="AW3">
-        <v>1.185567010309278</v>
-      </c>
-      <c r="AX3">
-        <v>1.02</v>
-      </c>
-      <c r="AY3">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="AZ3">
-        <v>1.080808080808081</v>
-      </c>
-      <c r="BA3">
-        <v>1.059405940594059</v>
-      </c>
-      <c r="BB3">
-        <v>1.048076923076923</v>
-      </c>
-      <c r="BC3">
-        <v>1.0625</v>
-      </c>
-      <c r="BD3">
-        <v>1.095744680851064</v>
-      </c>
-      <c r="BE3">
-        <v>1.061855670103093</v>
-      </c>
-      <c r="BF3">
-        <v>1.03921568627451</v>
-      </c>
-      <c r="BG3">
-        <v>1.09</v>
-      </c>
-      <c r="BH3">
-        <v>1.04</v>
-      </c>
-      <c r="BI3">
-        <v>1.118279569892473</v>
-      </c>
-      <c r="BJ3">
-        <v>1.086021505376344</v>
-      </c>
-      <c r="BL3">
-        <v>1.108695652173913</v>
-      </c>
-      <c r="BM3">
-        <v>1.122222222222222</v>
-      </c>
-      <c r="BQ3">
-        <v>0.9906542056074766</v>
-      </c>
-      <c r="BR3">
-        <v>1.131868131868132</v>
-      </c>
-      <c r="BS3">
-        <v>1.082474226804124</v>
-      </c>
-      <c r="BT3">
-        <v>1.03</v>
-      </c>
-      <c r="BU3">
-        <v>1.108695652173913</v>
-      </c>
-      <c r="BV3">
-        <v>1.061855670103093</v>
-      </c>
-      <c r="BW3">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="BX3">
-        <v>1.051546391752577</v>
-      </c>
-      <c r="CA3">
-        <v>1</v>
-      </c>
-      <c r="CB3">
+      <c r="CN3">
+        <v>1.029126213592233</v>
+      </c>
+      <c r="CO3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="CP3">
+        <v>1.052083333333333</v>
+      </c>
+      <c r="CQ3">
+        <v>1.430555555555556</v>
+      </c>
+      <c r="CR3">
+        <v>1.060606060606061</v>
+      </c>
+      <c r="CS3">
+        <v>1.097826086956522</v>
+      </c>
+      <c r="CT3">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="CU3">
         <v>1.072916666666667</v>
       </c>
-      <c r="CD3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="CE3">
-        <v>1.040816326530612</v>
-      </c>
-      <c r="CF3">
-        <v>1.097826086956522</v>
-      </c>
-      <c r="CH3">
-        <v>1.03125</v>
-      </c>
-      <c r="CK3">
-        <v>1.051020408163265</v>
-      </c>
-      <c r="CM3">
-        <v>1.070707070707071</v>
-      </c>
-      <c r="CN3">
-        <v>1.051020408163265</v>
-      </c>
-      <c r="CP3">
-        <v>1.051020408163265</v>
-      </c>
-      <c r="CS3">
-        <v>1.060606060606061</v>
+      <c r="CV3">
+        <v>1.092783505154639</v>
+      </c>
+      <c r="CW3">
+        <v>1.104166666666667</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.060606060606061</v>
+      </c>
       <c r="C4">
+        <v>1.017857142857143</v>
+      </c>
+      <c r="D4">
+        <v>1.028301886792453</v>
+      </c>
+      <c r="E4">
+        <v>1.058252427184466</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.038095238095238</v>
+      </c>
+      <c r="I4">
+        <v>1.018691588785047</v>
+      </c>
+      <c r="J4">
         <v>1.04</v>
       </c>
-      <c r="D4">
-        <v>1.02</v>
-      </c>
-      <c r="E4">
+      <c r="K4">
+        <v>1.07</v>
+      </c>
+      <c r="L4">
+        <v>1.072164948453608</v>
+      </c>
+      <c r="M4">
         <v>1.0625</v>
       </c>
-      <c r="F4">
-        <v>1.07</v>
-      </c>
-      <c r="H4">
+      <c r="N4">
         <v>1.038461538461539</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>1.04950495049505</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>1.051020408163265</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>1.009708737864078</v>
       </c>
-      <c r="Q4">
-        <v>1.019047619047619</v>
-      </c>
-      <c r="R4">
-        <v>1.061224489795918</v>
-      </c>
-      <c r="S4">
-        <v>1.067961165048544</v>
-      </c>
       <c r="T4">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.03030303030303</v>
       </c>
       <c r="V4">
-        <v>1.009259259259259</v>
+        <v>1.049019607843137</v>
       </c>
       <c r="W4">
-        <v>1.060606060606061</v>
-      </c>
-      <c r="X4">
-        <v>1.038095238095238</v>
-      </c>
-      <c r="Y4">
-        <v>1.090909090909091</v>
+        <v>1.047169811320755</v>
+      </c>
+      <c r="Z4">
+        <v>1.091836734693878</v>
+      </c>
+      <c r="AA4">
+        <v>1.144329896907216</v>
       </c>
       <c r="AC4">
-        <v>1.059405940594059</v>
-      </c>
-      <c r="AE4">
+        <v>1.033707865168539</v>
+      </c>
+      <c r="AD4">
+        <v>1.045045045045045</v>
+      </c>
+      <c r="AF4">
         <v>1.028301886792453</v>
       </c>
-      <c r="AF4">
-        <v>1.077669902912621</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
+      <c r="AG4">
+        <v>1.09375</v>
       </c>
       <c r="AI4">
         <v>1.125</v>
       </c>
       <c r="AJ4">
-        <v>1.037383177570093</v>
+        <v>1.047169811320755</v>
+      </c>
+      <c r="AK4">
+        <v>1.028571428571429</v>
       </c>
       <c r="AL4">
-        <v>1.05</v>
+        <v>1.153061224489796</v>
       </c>
       <c r="AM4">
+        <v>1.009615384615385</v>
+      </c>
+      <c r="AN4">
+        <v>1.126315789473684</v>
+      </c>
+      <c r="AO4">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="AP4">
+        <v>1.091836734693878</v>
+      </c>
+      <c r="AQ4">
+        <v>1.08421052631579</v>
+      </c>
+      <c r="AR4">
+        <v>1.06</v>
+      </c>
+      <c r="AS4">
         <v>0</v>
       </c>
-      <c r="AO4">
-        <v>1.05</v>
-      </c>
-      <c r="AP4">
-        <v>1.027522935779817</v>
-      </c>
-      <c r="AQ4">
-        <v>1.153061224489796</v>
-      </c>
-      <c r="AR4">
-        <v>1.104166666666667</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
       <c r="AT4">
-        <v>1.057692307692308</v>
+        <v>1.105263157894737</v>
+      </c>
+      <c r="AU4">
+        <v>1.090909090909091</v>
       </c>
       <c r="AV4">
-        <v>1.018691588785047</v>
+        <v>1.051546391752577</v>
       </c>
       <c r="AW4">
-        <v>1.144329896907216</v>
+        <v>1.052631578947369</v>
       </c>
       <c r="AX4">
-        <v>1.06</v>
+        <v>1.03960396039604</v>
+      </c>
+      <c r="AY4">
+        <v>1.263736263736264</v>
       </c>
       <c r="AZ4">
+        <v>1.033707865168539</v>
+      </c>
+      <c r="BA4">
         <v>1.070707070707071</v>
       </c>
-      <c r="BA4">
-        <v>1.059405940594059</v>
-      </c>
       <c r="BB4">
-        <v>1.009615384615385</v>
+        <v>1.11578947368421</v>
       </c>
       <c r="BC4">
-        <v>1.041666666666667</v>
+        <v>1.061224489795918</v>
       </c>
       <c r="BD4">
-        <v>1.095744680851064</v>
+        <v>1.101123595505618</v>
       </c>
       <c r="BE4">
-        <v>1.092783505154639</v>
+        <v>1.069306930693069</v>
       </c>
       <c r="BF4">
-        <v>1.058823529411765</v>
-      </c>
-      <c r="BG4">
-        <v>1.08</v>
+        <v>1.117021276595745</v>
       </c>
       <c r="BH4">
-        <v>1.05</v>
+        <v>1.127659574468085</v>
       </c>
       <c r="BI4">
-        <v>1.129032258064516</v>
+        <v>1.048076923076923</v>
       </c>
       <c r="BJ4">
-        <v>1.075268817204301</v>
+        <v>1.131868131868132</v>
+      </c>
+      <c r="BK4">
+        <v>1.049019607843137</v>
       </c>
       <c r="BL4">
-        <v>1.119565217391304</v>
+        <v>1.10989010989011</v>
       </c>
       <c r="BM4">
-        <v>1.122222222222222</v>
+        <v>0.9784946236559139</v>
       </c>
       <c r="BN4">
-        <v>1.106382978723404</v>
+        <v>1.138297872340426</v>
       </c>
       <c r="BO4">
+        <v>0.9528301886792453</v>
+      </c>
+      <c r="BP4">
+        <v>1.108695652173913</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9529411764705883</v>
+      </c>
+      <c r="BR4">
+        <v>1.052631578947369</v>
+      </c>
+      <c r="BS4">
+        <v>1.108695652173913</v>
+      </c>
+      <c r="BT4">
+        <v>1.152173913043478</v>
+      </c>
+      <c r="BU4">
         <v>1.072164948453608</v>
       </c>
-      <c r="BR4">
-        <v>1.120879120879121</v>
-      </c>
-      <c r="BS4">
-        <v>1.092783505154639</v>
-      </c>
-      <c r="BU4">
-        <v>1.108695652173913</v>
+      <c r="BV4">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="BW4">
+        <v>1.073684210526316</v>
       </c>
       <c r="BX4">
-        <v>1.020618556701031</v>
+        <v>1.10989010989011</v>
       </c>
       <c r="BY4">
-        <v>1.163265306122449</v>
-      </c>
-      <c r="CA4">
-        <v>0.9619047619047619</v>
+        <v>1.049019607843137</v>
+      </c>
+      <c r="BZ4">
+        <v>1.157303370786517</v>
+      </c>
+      <c r="CB4">
+        <v>1.02</v>
+      </c>
+      <c r="CC4">
+        <v>0.8829787234042553</v>
+      </c>
+      <c r="CD4">
+        <v>1.02020202020202</v>
       </c>
       <c r="CE4">
-        <v>1.010204081632653</v>
+        <v>1.030927835051547</v>
       </c>
       <c r="CF4">
-        <v>1.076086956521739</v>
+        <v>0.9514563106796117</v>
+      </c>
+      <c r="CG4">
+        <v>1.051546391752577</v>
       </c>
       <c r="CH4">
-        <v>1.010416666666667</v>
+        <v>1.051020408163265</v>
       </c>
       <c r="CI4">
-        <v>1.010309278350515</v>
+        <v>1</v>
       </c>
       <c r="CK4">
-        <v>1.040816326530612</v>
+        <v>1.082474226804124</v>
       </c>
       <c r="CL4">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="CM4">
+        <v>1.09375</v>
+      </c>
+      <c r="CN4">
         <v>1.038834951456311</v>
       </c>
-      <c r="CM4">
+      <c r="CO4">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="CP4">
+        <v>1.0625</v>
+      </c>
+      <c r="CQ4">
+        <v>1.444444444444445</v>
+      </c>
+      <c r="CR4">
         <v>1.050505050505051</v>
       </c>
-      <c r="CN4">
-        <v>1.051020408163265</v>
-      </c>
-      <c r="CP4">
-        <v>1.040816326530612</v>
-      </c>
       <c r="CS4">
-        <v>1.060606060606061</v>
+        <v>1.065217391304348</v>
+      </c>
+      <c r="CT4">
+        <v>0.6808510638297872</v>
       </c>
       <c r="CU4">
-        <v>1.070707070707071</v>
+        <v>1.072916666666667</v>
+      </c>
+      <c r="CV4">
+        <v>1.082474226804124</v>
+      </c>
+      <c r="CW4">
+        <v>1.072916666666667</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1405,196 +1519,265 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1.060606060606061</v>
+      </c>
+      <c r="C5">
+        <v>1.008928571428571</v>
+      </c>
+      <c r="D5">
+        <v>1.018867924528302</v>
+      </c>
+      <c r="E5">
         <v>1.048543689320389</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>1.028571428571429</v>
+      </c>
+      <c r="I5">
+        <v>1.009345794392523</v>
+      </c>
+      <c r="J5">
         <v>1.03</v>
       </c>
-      <c r="D5">
-        <v>1.03</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>1.05</v>
       </c>
-      <c r="G5">
-        <v>1.08</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>1.051546391752577</v>
+      </c>
+      <c r="M5">
+        <v>1.0625</v>
+      </c>
+      <c r="N5">
         <v>1.028846153846154</v>
-      </c>
-      <c r="I5">
-        <v>1.04950495049505</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1.019417475728155</v>
       </c>
       <c r="O5">
         <v>1.04950495049505</v>
       </c>
+      <c r="P5">
+        <v>1.112244897959184</v>
+      </c>
+      <c r="Q5">
+        <v>1.019417475728155</v>
+      </c>
+      <c r="R5">
+        <v>1.04950495049505</v>
+      </c>
       <c r="S5">
-        <v>1.058252427184466</v>
-      </c>
-      <c r="T5">
-        <v>1.02020202020202</v>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.9898989898989899</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>1.07843137254902</v>
       </c>
       <c r="W5">
-        <v>1.070707070707071</v>
-      </c>
-      <c r="X5">
-        <v>1.028571428571429</v>
-      </c>
-      <c r="Y5">
-        <v>1.060606060606061</v>
+        <v>1.047169811320755</v>
       </c>
       <c r="Z5">
-        <v>1.009345794392523</v>
-      </c>
-      <c r="AB5">
-        <v>0.972972972972973</v>
+        <v>1.091836734693878</v>
+      </c>
+      <c r="AA5">
+        <v>1.134020618556701</v>
       </c>
       <c r="AC5">
-        <v>1.00990099009901</v>
-      </c>
-      <c r="AD5">
-        <v>1.050505050505051</v>
-      </c>
-      <c r="AE5">
-        <v>1.018867924528302</v>
-      </c>
-      <c r="AH5">
-        <v>1.010416666666667</v>
+        <v>0.7303370786516853</v>
+      </c>
+      <c r="AF5">
+        <v>1.009433962264151</v>
+      </c>
+      <c r="AG5">
+        <v>1.072916666666667</v>
       </c>
       <c r="AI5">
         <v>1.104166666666667</v>
       </c>
       <c r="AJ5">
-        <v>1.02803738317757</v>
+        <v>1.037735849056604</v>
+      </c>
+      <c r="AK5">
+        <v>1.009523809523809</v>
       </c>
       <c r="AL5">
-        <v>1.03</v>
-      </c>
-      <c r="AO5">
-        <v>1.04</v>
+        <v>1.142857142857143</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1.094736842105263</v>
       </c>
       <c r="AP5">
-        <v>1.018348623853211</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AQ5">
-        <v>1.142857142857143</v>
+        <v>1.063157894736842</v>
       </c>
       <c r="AR5">
-        <v>1.083333333333333</v>
+        <v>1.06</v>
       </c>
       <c r="AT5">
-        <v>1.038461538461539</v>
+        <v>1.08421052631579</v>
+      </c>
+      <c r="AU5">
+        <v>1.080808080808081</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>1.041237113402062</v>
       </c>
       <c r="AW5">
-        <v>1.164948453608247</v>
+        <v>1.063157894736842</v>
       </c>
       <c r="AX5">
-        <v>1.04</v>
+        <v>1.01980198019802</v>
       </c>
       <c r="AY5">
-        <v>0.9399999999999999</v>
+        <v>1.252747252747253</v>
       </c>
       <c r="AZ5">
-        <v>1.080808080808081</v>
+        <v>1.056179775280899</v>
       </c>
       <c r="BA5">
+        <v>1.151515151515152</v>
+      </c>
+      <c r="BB5">
+        <v>1.094736842105263</v>
+      </c>
+      <c r="BC5">
+        <v>1.091836734693878</v>
+      </c>
+      <c r="BD5">
+        <v>1.056179775280899</v>
+      </c>
+      <c r="BE5">
         <v>1.069306930693069</v>
       </c>
-      <c r="BB5">
-        <v>1</v>
-      </c>
-      <c r="BC5">
-        <v>1.03125</v>
-      </c>
-      <c r="BD5">
+      <c r="BF5">
         <v>1.106382978723404</v>
       </c>
-      <c r="BE5">
-        <v>1.082474226804124</v>
-      </c>
-      <c r="BF5">
-        <v>1.049019607843137</v>
+      <c r="BG5">
+        <v>1.022222222222222</v>
       </c>
       <c r="BH5">
-        <v>1.04</v>
+        <v>1.106382978723404</v>
       </c>
       <c r="BI5">
-        <v>1.129032258064516</v>
+        <v>1.048076923076923</v>
       </c>
       <c r="BJ5">
-        <v>1.10752688172043</v>
+        <v>1.131868131868132</v>
+      </c>
+      <c r="BK5">
+        <v>0.9901960784313726</v>
       </c>
       <c r="BL5">
+        <v>1.120879120879121</v>
+      </c>
+      <c r="BM5">
+        <v>0.956989247311828</v>
+      </c>
+      <c r="BN5">
+        <v>1.138297872340426</v>
+      </c>
+      <c r="BO5">
+        <v>0.9433962264150945</v>
+      </c>
+      <c r="BP5">
+        <v>1.108695652173913</v>
+      </c>
+      <c r="BQ5">
+        <v>1.105882352941176</v>
+      </c>
+      <c r="BR5">
+        <v>1.073684210526316</v>
+      </c>
+      <c r="BS5">
+        <v>1.097826086956522</v>
+      </c>
+      <c r="BT5">
         <v>1.054347826086957</v>
       </c>
-      <c r="BP5">
-        <v>1.045871559633027</v>
-      </c>
-      <c r="BR5">
-        <v>1.131868131868132</v>
-      </c>
-      <c r="BS5">
+      <c r="BU5">
+        <v>1.072164948453608</v>
+      </c>
+      <c r="BV5">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="BW5">
+        <v>1.063157894736842</v>
+      </c>
+      <c r="BX5">
+        <v>1.065934065934066</v>
+      </c>
+      <c r="BY5">
+        <v>1.058823529411765</v>
+      </c>
+      <c r="BZ5">
+        <v>1.224719101123595</v>
+      </c>
+      <c r="CB5">
+        <v>1.02</v>
+      </c>
+      <c r="CC5">
+        <v>0.9042553191489362</v>
+      </c>
+      <c r="CD5">
+        <v>1.02020202020202</v>
+      </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>0.9320388349514565</v>
+      </c>
+      <c r="CG5">
+        <v>1.061855670103093</v>
+      </c>
+      <c r="CH5">
+        <v>1.020408163265306</v>
+      </c>
+      <c r="CI5">
+        <v>1.032258064516129</v>
+      </c>
+      <c r="CK5">
         <v>1.092783505154639</v>
       </c>
-      <c r="BU5">
-        <v>1.086956521739131</v>
-      </c>
-      <c r="BV5">
-        <v>1.072164948453608</v>
-      </c>
-      <c r="BX5">
-        <v>1.020618556701031</v>
-      </c>
-      <c r="BY5">
-        <v>1.173469387755102</v>
-      </c>
-      <c r="CA5">
-        <v>0.9714285714285714</v>
-      </c>
-      <c r="CC5">
-        <v>0.9908256880733946</v>
-      </c>
-      <c r="CD5">
+      <c r="CL5">
+        <v>1.041666666666667</v>
+      </c>
+      <c r="CM5">
+        <v>1.09375</v>
+      </c>
+      <c r="CN5">
+        <v>0.9611650485436893</v>
+      </c>
+      <c r="CO5">
         <v>1.091836734693878</v>
       </c>
-      <c r="CE5">
-        <v>1.040816326530612</v>
-      </c>
-      <c r="CH5">
-        <v>1.03125</v>
-      </c>
-      <c r="CK5">
-        <v>1.051020408163265</v>
-      </c>
-      <c r="CM5">
-        <v>1.070707070707071</v>
-      </c>
-      <c r="CN5">
-        <v>1.020408163265306</v>
-      </c>
       <c r="CP5">
-        <v>1.061224489795918</v>
+        <v>1.09375</v>
+      </c>
+      <c r="CQ5">
+        <v>1.486111111111111</v>
+      </c>
+      <c r="CR5">
+        <v>1.04040404040404</v>
       </c>
       <c r="CS5">
-        <v>1.050505050505051</v>
+        <v>1.054347826086957</v>
+      </c>
+      <c r="CT5">
+        <v>0.7127659574468085</v>
       </c>
       <c r="CU5">
-        <v>1.080808080808081</v>
+        <v>1.072916666666667</v>
+      </c>
+      <c r="CV5">
+        <v>1.092783505154639</v>
       </c>
       <c r="CW5">
-        <v>0.9191919191919192</v>
+        <v>1.114583333333333</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1602,408 +1785,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1.070707070707071</v>
+      </c>
+      <c r="D6">
+        <v>1.066037735849057</v>
+      </c>
+      <c r="E6">
         <v>1.048543689320389</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>1.038461538461539</v>
+      </c>
+      <c r="H6">
+        <v>1.028571428571429</v>
+      </c>
+      <c r="I6">
+        <v>1.018691588785047</v>
+      </c>
+      <c r="J6">
         <v>1.1</v>
       </c>
-      <c r="D6">
-        <v>1.11</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>1.04</v>
       </c>
-      <c r="G6">
-        <v>1.08</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>1.051546391752577</v>
+      </c>
+      <c r="M6">
+        <v>1.052083333333333</v>
+      </c>
+      <c r="N6">
         <v>1.028846153846154</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1.04950495049505</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>1.010204081632653</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
+        <v>1.087378640776699</v>
+      </c>
+      <c r="V6">
+        <v>1.068627450980392</v>
+      </c>
+      <c r="W6">
+        <v>1.066037735849057</v>
+      </c>
+      <c r="Y6">
+        <v>1.037735849056604</v>
+      </c>
+      <c r="Z6">
+        <v>1.020408163265306</v>
+      </c>
+      <c r="AA6">
+        <v>1.144329896907216</v>
+      </c>
+      <c r="AC6">
+        <v>0.797752808988764</v>
+      </c>
+      <c r="AD6">
+        <v>1.054054054054054</v>
+      </c>
+      <c r="AE6">
+        <v>1.03921568627451</v>
+      </c>
+      <c r="AF6">
+        <v>1.018867924528302</v>
+      </c>
+      <c r="AG6">
+        <v>1.1875</v>
+      </c>
+      <c r="AH6">
+        <v>1.058823529411765</v>
+      </c>
+      <c r="AI6">
+        <v>1.114583333333333</v>
+      </c>
+      <c r="AJ6">
+        <v>1.037735849056604</v>
+      </c>
+      <c r="AK6">
+        <v>1.038095238095238</v>
+      </c>
+      <c r="AL6">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="AM6">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="AN6">
+        <v>1.11578947368421</v>
+      </c>
+      <c r="AO6">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="AP6">
+        <v>1.091836734693878</v>
+      </c>
+      <c r="AQ6">
+        <v>1.094736842105263</v>
+      </c>
+      <c r="AR6">
+        <v>1.04</v>
+      </c>
+      <c r="AS6">
+        <v>1.067961165048544</v>
+      </c>
+      <c r="AT6">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="AU6">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="AV6">
+        <v>1.144329896907216</v>
+      </c>
+      <c r="AW6">
+        <v>1.168421052631579</v>
+      </c>
+      <c r="AX6">
+        <v>1.02970297029703</v>
+      </c>
+      <c r="AY6">
+        <v>1.274725274725275</v>
+      </c>
+      <c r="AZ6">
+        <v>0.9101123595505618</v>
+      </c>
+      <c r="BA6">
+        <v>1.04040404040404</v>
+      </c>
+      <c r="BB6">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="BC6">
+        <v>1.091836734693878</v>
+      </c>
+      <c r="BD6">
+        <v>1.112359550561798</v>
+      </c>
+      <c r="BE6">
+        <v>1.059405940594059</v>
+      </c>
+      <c r="BF6">
+        <v>1.085106382978723</v>
+      </c>
+      <c r="BG6">
+        <v>1.044444444444445</v>
+      </c>
+      <c r="BH6">
+        <v>1.085106382978723</v>
+      </c>
+      <c r="BI6">
         <v>1.038461538461539</v>
       </c>
-      <c r="N6">
-        <v>1.087378640776699</v>
-      </c>
-      <c r="Q6">
-        <v>1.028571428571429</v>
-      </c>
-      <c r="S6">
-        <v>1.048543689320389</v>
-      </c>
-      <c r="T6">
-        <v>1.01010101010101</v>
-      </c>
-      <c r="W6">
-        <v>1.070707070707071</v>
-      </c>
-      <c r="X6">
-        <v>1.028571428571429</v>
-      </c>
-      <c r="Y6">
-        <v>1.050505050505051</v>
-      </c>
-      <c r="AA6">
+      <c r="BJ6">
+        <v>1.10989010989011</v>
+      </c>
+      <c r="BK6">
         <v>1.03921568627451</v>
       </c>
-      <c r="AB6">
-        <v>0.954954954954955</v>
-      </c>
-      <c r="AC6">
-        <v>1.02970297029703</v>
-      </c>
-      <c r="AD6">
-        <v>1.04040404040404</v>
-      </c>
-      <c r="AE6">
-        <v>1.018867924528302</v>
-      </c>
-      <c r="AG6">
-        <v>0.9811320754716982</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1.037383177570093</v>
-      </c>
-      <c r="AK6">
-        <v>1.03921568627451</v>
-      </c>
-      <c r="AM6">
-        <v>1.067961165048544</v>
-      </c>
-      <c r="AN6">
-        <v>1.044642857142857</v>
-      </c>
-      <c r="AO6">
-        <v>1.05</v>
-      </c>
-      <c r="AP6">
-        <v>1.018348623853211</v>
-      </c>
-      <c r="AQ6">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="AR6">
-        <v>1.09375</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>1.123711340206186</v>
-      </c>
-      <c r="AX6">
-        <v>1.05</v>
-      </c>
-      <c r="BA6">
-        <v>1.059405940594059</v>
-      </c>
-      <c r="BB6">
-        <v>0.9807692307692307</v>
-      </c>
-      <c r="BD6">
-        <v>1.074468085106383</v>
-      </c>
-      <c r="BE6">
+      <c r="BL6">
+        <v>1.098901098901099</v>
+      </c>
+      <c r="BM6">
+        <v>0.913978494623656</v>
+      </c>
+      <c r="BN6">
+        <v>1.138297872340426</v>
+      </c>
+      <c r="BO6">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="BP6">
+        <v>1.076086956521739</v>
+      </c>
+      <c r="BQ6">
+        <v>1.094117647058823</v>
+      </c>
+      <c r="BR6">
+        <v>1.08421052631579</v>
+      </c>
+      <c r="BS6">
+        <v>1.076086956521739</v>
+      </c>
+      <c r="BT6">
+        <v>1.108695652173913</v>
+      </c>
+      <c r="BU6">
+        <v>1.041237113402062</v>
+      </c>
+      <c r="BV6">
+        <v>1.094736842105263</v>
+      </c>
+      <c r="BW6">
+        <v>1.073684210526316</v>
+      </c>
+      <c r="BX6">
+        <v>1.087912087912088</v>
+      </c>
+      <c r="BY6">
+        <v>0.9803921568627452</v>
+      </c>
+      <c r="BZ6">
+        <v>1.157303370786517</v>
+      </c>
+      <c r="CA6">
+        <v>0.9724770642201834</v>
+      </c>
+      <c r="CB6">
+        <v>1.02</v>
+      </c>
+      <c r="CC6">
+        <v>0.925531914893617</v>
+      </c>
+      <c r="CD6">
+        <v>1.02020202020202</v>
+      </c>
+      <c r="CE6">
+        <v>0.979381443298969</v>
+      </c>
+      <c r="CF6">
+        <v>0.941747572815534</v>
+      </c>
+      <c r="CG6">
+        <v>1.041237113402062</v>
+      </c>
+      <c r="CH6">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="CI6">
+        <v>0.8602150537634408</v>
+      </c>
+      <c r="CJ6">
+        <v>0.9439252336448599</v>
+      </c>
+      <c r="CK6">
         <v>1.072164948453608</v>
       </c>
-      <c r="BF6">
-        <v>1.029411764705882</v>
-      </c>
-      <c r="BG6">
-        <v>1.07</v>
-      </c>
-      <c r="BI6">
-        <v>1.118279569892473</v>
-      </c>
-      <c r="BJ6">
-        <v>1.064516129032258</v>
-      </c>
-      <c r="BL6">
-        <v>1.097826086956522</v>
-      </c>
-      <c r="BO6">
-        <v>1.051546391752577</v>
-      </c>
-      <c r="BR6">
-        <v>1.197802197802198</v>
-      </c>
-      <c r="BS6">
-        <v>1.082474226804124</v>
-      </c>
-      <c r="BU6">
-        <v>1.076086956521739</v>
-      </c>
-      <c r="BV6">
-        <v>1.030927835051547</v>
-      </c>
-      <c r="BX6">
-        <v>1.041237113402062</v>
-      </c>
-      <c r="BY6">
-        <v>1.051020408163265</v>
-      </c>
-      <c r="CA6">
-        <v>0.9714285714285714</v>
-      </c>
-      <c r="CC6">
-        <v>1.009174311926605</v>
-      </c>
-      <c r="CD6">
+      <c r="CL6">
+        <v>1.072916666666667</v>
+      </c>
+      <c r="CM6">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="CN6">
+        <v>0.9611650485436893</v>
+      </c>
+      <c r="CO6">
         <v>1.071428571428571</v>
       </c>
-      <c r="CE6">
-        <v>1</v>
-      </c>
-      <c r="CF6">
+      <c r="CP6">
+        <v>1</v>
+      </c>
+      <c r="CQ6">
+        <v>1.430555555555556</v>
+      </c>
+      <c r="CR6">
+        <v>1.02020202020202</v>
+      </c>
+      <c r="CS6">
         <v>1.065217391304348</v>
       </c>
-      <c r="CH6">
-        <v>1.010416666666667</v>
-      </c>
-      <c r="CI6">
-        <v>1.072164948453608</v>
-      </c>
-      <c r="CJ6">
-        <v>1.1</v>
-      </c>
-      <c r="CK6">
-        <v>1.040816326530612</v>
-      </c>
-      <c r="CL6">
-        <v>0.9611650485436893</v>
-      </c>
-      <c r="CM6">
-        <v>1.060606060606061</v>
-      </c>
-      <c r="CN6">
-        <v>1.040816326530612</v>
-      </c>
-      <c r="CP6">
-        <v>1.020408163265306</v>
-      </c>
-      <c r="CQ6">
+      <c r="CT6">
+        <v>0.8297872340425533</v>
+      </c>
+      <c r="CU6">
         <v>1.052083333333333</v>
       </c>
-      <c r="CS6">
-        <v>1.050505050505051</v>
-      </c>
-      <c r="CT6">
-        <v>0.941747572815534</v>
+      <c r="CV6">
+        <v>1.092783505154639</v>
+      </c>
+      <c r="CW6">
+        <v>1.0625</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>1.026785714285714</v>
+      </c>
+      <c r="D7">
+        <v>1.037735849056604</v>
+      </c>
+      <c r="E7">
         <v>1.038834951456311</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>1.019230769230769</v>
+      </c>
+      <c r="H7">
+        <v>1.047619047619048</v>
+      </c>
+      <c r="J7">
         <v>1.05</v>
       </c>
-      <c r="D7">
-        <v>1.05</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>1.09</v>
       </c>
-      <c r="G7">
-        <v>1.09</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>1.082474226804124</v>
+      </c>
+      <c r="M7">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="N7">
         <v>1.038461538461539</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1.079207920792079</v>
       </c>
-      <c r="L7">
-        <v>1.051020408163265</v>
-      </c>
-      <c r="N7">
+      <c r="P7">
+        <v>1.112244897959184</v>
+      </c>
+      <c r="Q7">
         <v>1.019417475728155</v>
       </c>
-      <c r="R7">
-        <v>1.061224489795918</v>
-      </c>
       <c r="T7">
-        <v>1.070707070707071</v>
+        <v>1.036363636363636</v>
+      </c>
+      <c r="U7">
+        <v>1.03030303030303</v>
       </c>
       <c r="V7">
-        <v>1.018518518518518</v>
-      </c>
-      <c r="X7">
-        <v>1.047619047619048</v>
+        <v>1.049019607843137</v>
+      </c>
+      <c r="W7">
+        <v>1.037735849056604</v>
       </c>
       <c r="Y7">
-        <v>1.090909090909091</v>
+        <v>1.037735849056604</v>
       </c>
       <c r="Z7">
-        <v>1.018691588785047</v>
+        <v>1.102040816326531</v>
       </c>
       <c r="AA7">
+        <v>1.092783505154639</v>
+      </c>
+      <c r="AC7">
+        <v>0.9101123595505618</v>
+      </c>
+      <c r="AE7">
         <v>1.03921568627451</v>
       </c>
-      <c r="AC7">
-        <v>1.059405940594059</v>
-      </c>
-      <c r="AD7">
-        <v>1.03030303030303</v>
-      </c>
-      <c r="AE7">
-        <v>1.009433962264151</v>
+      <c r="AF7">
+        <v>1.028301886792453</v>
+      </c>
+      <c r="AG7">
+        <v>1.0625</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>1.029411764705882</v>
       </c>
       <c r="AI7">
         <v>1.09375</v>
       </c>
       <c r="AJ7">
-        <v>1.02803738317757</v>
+        <v>1.037735849056604</v>
       </c>
       <c r="AK7">
-        <v>1.049019607843137</v>
+        <v>1.009523809523809</v>
       </c>
       <c r="AL7">
-        <v>1.05</v>
+        <v>1.173469387755102</v>
       </c>
       <c r="AM7">
-        <v>1.029126213592233</v>
+        <v>0.9903846153846153</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>1.026785714285714</v>
       </c>
       <c r="AP7">
-        <v>1.018348623853211</v>
+        <v>1.102040816326531</v>
       </c>
       <c r="AQ7">
-        <v>1.173469387755102</v>
+        <v>1.073684210526316</v>
       </c>
       <c r="AR7">
+        <v>1.08</v>
+      </c>
+      <c r="AS7">
+        <v>1.038834951456311</v>
+      </c>
+      <c r="AT7">
+        <v>1.094736842105263</v>
+      </c>
+      <c r="AU7">
+        <v>1.070707070707071</v>
+      </c>
+      <c r="AV7">
+        <v>1.041237113402062</v>
+      </c>
+      <c r="AW7">
+        <v>1.2</v>
+      </c>
+      <c r="AX7">
+        <v>1.059405940594059</v>
+      </c>
+      <c r="AY7">
+        <v>1.252747252747253</v>
+      </c>
+      <c r="AZ7">
+        <v>1.033707865168539</v>
+      </c>
+      <c r="BA7">
+        <v>1.161616161616162</v>
+      </c>
+      <c r="BB7">
+        <v>1.08421052631579</v>
+      </c>
+      <c r="BC7">
+        <v>1.102040816326531</v>
+      </c>
+      <c r="BD7">
+        <v>1.123595505617978</v>
+      </c>
+      <c r="BE7">
+        <v>1.069306930693069</v>
+      </c>
+      <c r="BF7">
+        <v>1.095744680851064</v>
+      </c>
+      <c r="BG7">
+        <v>1.077777777777778</v>
+      </c>
+      <c r="BH7">
+        <v>1.117021276595745</v>
+      </c>
+      <c r="BI7">
+        <v>1.048076923076923</v>
+      </c>
+      <c r="BJ7">
+        <v>1.131868131868132</v>
+      </c>
+      <c r="BK7">
+        <v>1.009803921568627</v>
+      </c>
+      <c r="BL7">
+        <v>1.131868131868132</v>
+      </c>
+      <c r="BM7">
+        <v>0.9784946236559139</v>
+      </c>
+      <c r="BN7">
+        <v>1.148936170212766</v>
+      </c>
+      <c r="BO7">
+        <v>0.9811320754716982</v>
+      </c>
+      <c r="BP7">
+        <v>1.076086956521739</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9529411764705883</v>
+      </c>
+      <c r="BR7">
+        <v>1.08421052631579</v>
+      </c>
+      <c r="BS7">
+        <v>1.108695652173913</v>
+      </c>
+      <c r="BT7">
+        <v>1.141304347826087</v>
+      </c>
+      <c r="BU7">
+        <v>1.051546391752577</v>
+      </c>
+      <c r="BV7">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="BW7">
+        <v>1.11578947368421</v>
+      </c>
+      <c r="BX7">
+        <v>1.120879120879121</v>
+      </c>
+      <c r="BY7">
+        <v>1.058823529411765</v>
+      </c>
+      <c r="BZ7">
+        <v>1.235955056179775</v>
+      </c>
+      <c r="CB7">
+        <v>1.03</v>
+      </c>
+      <c r="CC7">
+        <v>0.9361702127659574</v>
+      </c>
+      <c r="CD7">
+        <v>1.04040404040404</v>
+      </c>
+      <c r="CE7">
+        <v>1.020618556701031</v>
+      </c>
+      <c r="CF7">
+        <v>0.9514563106796117</v>
+      </c>
+      <c r="CG7">
+        <v>1.072164948453608</v>
+      </c>
+      <c r="CH7">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="CI7">
+        <v>0.8924731182795699</v>
+      </c>
+      <c r="CK7">
+        <v>1.092783505154639</v>
+      </c>
+      <c r="CL7">
+        <v>1.0625</v>
+      </c>
+      <c r="CM7">
+        <v>1.104166666666667</v>
+      </c>
+      <c r="CN7">
+        <v>0.9708737864077671</v>
+      </c>
+      <c r="CO7">
+        <v>1.091836734693878</v>
+      </c>
+      <c r="CP7">
         <v>1.083333333333333</v>
       </c>
-      <c r="AT7">
-        <v>1.048076923076923</v>
-      </c>
-      <c r="AV7">
-        <v>1.009345794392523</v>
-      </c>
-      <c r="AW7">
-        <v>1.11340206185567</v>
-      </c>
-      <c r="AX7">
-        <v>1.02</v>
-      </c>
-      <c r="AZ7">
-        <v>1.090909090909091</v>
-      </c>
-      <c r="BA7">
-        <v>1.069306930693069</v>
-      </c>
-      <c r="BB7">
-        <v>1.009615384615385</v>
-      </c>
-      <c r="BC7">
-        <v>1.0625</v>
-      </c>
-      <c r="BE7">
-        <v>1.082474226804124</v>
-      </c>
-      <c r="BF7">
-        <v>1.03921568627451</v>
-      </c>
-      <c r="BG7">
-        <v>0.9899999999999999</v>
-      </c>
-      <c r="BI7">
-        <v>1.129032258064516</v>
-      </c>
-      <c r="BJ7">
-        <v>1.096774193548387</v>
-      </c>
-      <c r="BL7">
-        <v>1.108695652173913</v>
-      </c>
-      <c r="BM7">
-        <v>1.144444444444444</v>
-      </c>
-      <c r="BR7">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="BS7">
-        <v>1.092783505154639</v>
-      </c>
-      <c r="BT7">
-        <v>1.05</v>
-      </c>
-      <c r="BU7">
-        <v>1.108695652173913</v>
-      </c>
-      <c r="BV7">
-        <v>1.051546391752577</v>
-      </c>
-      <c r="BW7">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="BX7">
-        <v>1.051546391752577</v>
-      </c>
-      <c r="CA7">
-        <v>1</v>
-      </c>
-      <c r="CB7">
-        <v>1.010416666666667</v>
-      </c>
-      <c r="CC7">
-        <v>1.018348623853211</v>
-      </c>
-      <c r="CD7">
-        <v>1.091836734693878</v>
-      </c>
-      <c r="CE7">
-        <v>1.030612244897959</v>
-      </c>
-      <c r="CF7">
-        <v>1.086956521739131</v>
-      </c>
-      <c r="CG7">
-        <v>1.085106382978723</v>
-      </c>
-      <c r="CH7">
-        <v>1.020833333333333</v>
-      </c>
-      <c r="CJ7">
-        <v>1.122222222222222</v>
-      </c>
-      <c r="CK7">
-        <v>1.061224489795918</v>
-      </c>
-      <c r="CM7">
-        <v>1.070707070707071</v>
-      </c>
-      <c r="CN7">
-        <v>1.040816326530612</v>
-      </c>
-      <c r="CP7">
-        <v>1.061224489795918</v>
-      </c>
       <c r="CQ7">
-        <v>1.052083333333333</v>
+        <v>1.416666666666667</v>
+      </c>
+      <c r="CR7">
+        <v>1.050505050505051</v>
       </c>
       <c r="CS7">
-        <v>1.050505050505051</v>
+        <v>1.043478260869565</v>
+      </c>
+      <c r="CT7">
+        <v>1.063829787234043</v>
+      </c>
+      <c r="CU7">
+        <v>1.072916666666667</v>
+      </c>
+      <c r="CV7">
+        <v>1.041237113402062</v>
       </c>
       <c r="CW7">
-        <v>0.9797979797979799</v>
+        <v>1.208333333333333</v>
       </c>
     </row>
   </sheetData>
